--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0018-006 - CRO atau CRM mengajukan data Non Sales Pemimpin Cabang Reject.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0018-006 - CRO atau CRM mengajukan data Non Sales Pemimpin Cabang Reject.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1654AEB8-C13C-4726-9910-5924E7D4D104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD906D9A-73CC-4CA2-9F61-12A9540882AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="3645" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0283" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0018" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -116,9 +116,6 @@
     <t>Cuti Melahirkan</t>
   </si>
   <si>
-    <t>DGS-298</t>
-  </si>
-  <si>
     <t>CRO/CRM mengajukan data Non Sales Reject</t>
   </si>
   <si>
@@ -140,6 +137,9 @@
  -Pilih menu monitoring di fitur non sales update
  -Cek status approval
  -Cek Data report yang telah di Reject</t>
+  </si>
+  <si>
+    <t>SCD0018-006</t>
   </si>
 </sst>
 </file>
@@ -547,14 +547,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.85546875" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
@@ -627,18 +627,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="102" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>20</v>
@@ -662,11 +662,11 @@
       </c>
       <c r="M2" s="16" t="str">
         <f ca="1">TEXT(TODAY()+1,"yyyy-mm-dd")</f>
-        <v>2022-09-01</v>
+        <v>2022-11-11</v>
       </c>
       <c r="N2" s="16" t="str">
         <f ca="1">TEXT(TODAY()+2,"yyyy-mm-dd")</f>
-        <v>2022-09-02</v>
+        <v>2022-11-12</v>
       </c>
       <c r="O2" s="12"/>
       <c r="P2" s="7"/>
@@ -681,13 +681,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>23</v>
@@ -715,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="D4" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>24</v>
